--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Icam4-Itgal.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Icam4-Itgal.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>6.116667</v>
+        <v>1.829945333333333</v>
       </c>
       <c r="H2">
-        <v>18.350001</v>
+        <v>5.489835999999999</v>
       </c>
       <c r="I2">
-        <v>0.7618741505207483</v>
+        <v>0.4190796720210465</v>
       </c>
       <c r="J2">
-        <v>0.7618741505207483</v>
+        <v>0.4190796720210465</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>19.43258433333333</v>
+        <v>0.1994653333333334</v>
       </c>
       <c r="N2">
-        <v>58.29775300000001</v>
+        <v>0.598396</v>
       </c>
       <c r="O2">
-        <v>0.5025299392457538</v>
+        <v>0.01676579960230272</v>
       </c>
       <c r="P2">
-        <v>0.5025299392457538</v>
+        <v>0.01676579960230271</v>
       </c>
       <c r="Q2">
-        <v>118.862647316417</v>
+        <v>0.3650106558951111</v>
       </c>
       <c r="R2">
-        <v>1069.763825847753</v>
+        <v>3.285095903056</v>
       </c>
       <c r="S2">
-        <v>0.3828645705741019</v>
+        <v>0.007026205798503614</v>
       </c>
       <c r="T2">
-        <v>0.3828645705741019</v>
+        <v>0.007026205798503612</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>6.116667</v>
+        <v>1.829945333333333</v>
       </c>
       <c r="H3">
-        <v>18.350001</v>
+        <v>5.489835999999999</v>
       </c>
       <c r="I3">
-        <v>0.7618741505207483</v>
+        <v>0.4190796720210465</v>
       </c>
       <c r="J3">
-        <v>0.7618741505207483</v>
+        <v>0.4190796720210465</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -623,22 +623,22 @@
         <v>1.143476</v>
       </c>
       <c r="O3">
-        <v>0.009856828012032944</v>
+        <v>0.03203779682023726</v>
       </c>
       <c r="P3">
-        <v>0.009856828012032942</v>
+        <v>0.03203779682023726</v>
       </c>
       <c r="Q3">
-        <v>2.331420638164</v>
+        <v>0.6974995233262221</v>
       </c>
       <c r="R3">
-        <v>20.982785743476</v>
+        <v>6.277495709935999</v>
       </c>
       <c r="S3">
-        <v>0.007509662468496715</v>
+        <v>0.01342638938370196</v>
       </c>
       <c r="T3">
-        <v>0.007509662468496713</v>
+        <v>0.01342638938370196</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>6.116667</v>
+        <v>1.829945333333333</v>
       </c>
       <c r="H4">
-        <v>18.350001</v>
+        <v>5.489835999999999</v>
       </c>
       <c r="I4">
-        <v>0.7618741505207483</v>
+        <v>0.4190796720210465</v>
       </c>
       <c r="J4">
-        <v>0.7618741505207483</v>
+        <v>0.4190796720210465</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -679,28 +679,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.1430596666666667</v>
+        <v>0.2888043333333333</v>
       </c>
       <c r="N4">
-        <v>0.429179</v>
+        <v>0.8664129999999999</v>
       </c>
       <c r="O4">
-        <v>0.003699547335821904</v>
+        <v>0.02427507324719734</v>
       </c>
       <c r="P4">
-        <v>0.003699547335821903</v>
+        <v>0.02427507324719734</v>
       </c>
       <c r="Q4">
-        <v>0.8750483421309999</v>
+        <v>0.5284961420297776</v>
       </c>
       <c r="R4">
-        <v>7.875435079179</v>
+        <v>4.756465278267999</v>
       </c>
       <c r="S4">
-        <v>0.00281858948379061</v>
+        <v>0.01017318973472234</v>
       </c>
       <c r="T4">
-        <v>0.00281858948379061</v>
+        <v>0.01017318973472234</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>6.116667</v>
+        <v>1.829945333333333</v>
       </c>
       <c r="H5">
-        <v>18.350001</v>
+        <v>5.489835999999999</v>
       </c>
       <c r="I5">
-        <v>0.7618741505207483</v>
+        <v>0.4190796720210465</v>
       </c>
       <c r="J5">
-        <v>0.7618741505207483</v>
+        <v>0.4190796720210465</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>18.712703</v>
+        <v>11.02772766666667</v>
       </c>
       <c r="N5">
-        <v>56.138109</v>
+        <v>33.083183</v>
       </c>
       <c r="O5">
-        <v>0.4839136854063913</v>
+        <v>0.9269213303302627</v>
       </c>
       <c r="P5">
-        <v>0.4839136854063913</v>
+        <v>0.9269213303302626</v>
       </c>
       <c r="Q5">
-        <v>114.459372920901</v>
+        <v>20.18013878088755</v>
       </c>
       <c r="R5">
-        <v>1030.134356288109</v>
+        <v>181.621249027988</v>
       </c>
       <c r="S5">
-        <v>0.368681327994359</v>
+        <v>0.3884538871041185</v>
       </c>
       <c r="T5">
-        <v>0.368681327994359</v>
+        <v>0.3884538871041185</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>3.711597</v>
       </c>
       <c r="I6">
-        <v>0.1541018886838403</v>
+        <v>0.2833335737960661</v>
       </c>
       <c r="J6">
-        <v>0.1541018886838403</v>
+        <v>0.2833335737960661</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>19.43258433333333</v>
+        <v>0.1994653333333334</v>
       </c>
       <c r="N6">
-        <v>58.29775300000001</v>
+        <v>0.598396</v>
       </c>
       <c r="O6">
-        <v>0.5025299392457538</v>
+        <v>0.01676579960230272</v>
       </c>
       <c r="P6">
-        <v>0.5025299392457538</v>
+        <v>0.01676579960230271</v>
       </c>
       <c r="Q6">
-        <v>24.04197390461567</v>
+        <v>0.2467783109346667</v>
       </c>
       <c r="R6">
-        <v>216.377765141541</v>
+        <v>2.221004798412</v>
       </c>
       <c r="S6">
-        <v>0.07744081275794618</v>
+        <v>0.004750313918869092</v>
       </c>
       <c r="T6">
-        <v>0.07744081275794616</v>
+        <v>0.00475031391886909</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>3.711597</v>
       </c>
       <c r="I7">
-        <v>0.1541018886838403</v>
+        <v>0.2833335737960661</v>
       </c>
       <c r="J7">
-        <v>0.1541018886838403</v>
+        <v>0.2833335737960661</v>
       </c>
       <c r="K7">
         <v>2</v>
@@ -871,10 +871,10 @@
         <v>1.143476</v>
       </c>
       <c r="O7">
-        <v>0.009856828012032944</v>
+        <v>0.03203779682023726</v>
       </c>
       <c r="P7">
-        <v>0.009856828012032942</v>
+        <v>0.03203779682023726</v>
       </c>
       <c r="Q7">
         <v>0.4715691212413333</v>
@@ -883,10 +883,10 @@
         <v>4.244122091172</v>
       </c>
       <c r="S7">
-        <v>0.001518955813086059</v>
+        <v>0.009077383469630064</v>
       </c>
       <c r="T7">
-        <v>0.001518955813086059</v>
+        <v>0.009077383469630064</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>3.711597</v>
       </c>
       <c r="I8">
-        <v>0.1541018886838403</v>
+        <v>0.2833335737960661</v>
       </c>
       <c r="J8">
-        <v>0.1541018886838403</v>
+        <v>0.2833335737960661</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -927,28 +927,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>0.1430596666666667</v>
+        <v>0.2888043333333333</v>
       </c>
       <c r="N8">
-        <v>0.429179</v>
+        <v>0.8664129999999999</v>
       </c>
       <c r="O8">
-        <v>0.003699547335821904</v>
+        <v>0.02427507324719734</v>
       </c>
       <c r="P8">
-        <v>0.003699547335821903</v>
+        <v>0.02427507324719734</v>
       </c>
       <c r="Q8">
-        <v>0.1769932765403333</v>
+        <v>0.3573084323956666</v>
       </c>
       <c r="R8">
-        <v>1.592939488863</v>
+        <v>3.215775891561</v>
       </c>
       <c r="S8">
-        <v>0.0005701072317254249</v>
+        <v>0.006877943257289697</v>
       </c>
       <c r="T8">
-        <v>0.0005701072317254247</v>
+        <v>0.006877943257289696</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>3.711597</v>
       </c>
       <c r="I9">
-        <v>0.1541018886838403</v>
+        <v>0.2833335737960661</v>
       </c>
       <c r="J9">
-        <v>0.1541018886838403</v>
+        <v>0.2833335737960661</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>18.712703</v>
+        <v>11.02772766666667</v>
       </c>
       <c r="N9">
-        <v>56.138109</v>
+        <v>33.083183</v>
       </c>
       <c r="O9">
-        <v>0.4839136854063913</v>
+        <v>0.9269213303302627</v>
       </c>
       <c r="P9">
-        <v>0.4839136854063913</v>
+        <v>0.9269213303302626</v>
       </c>
       <c r="Q9">
-        <v>23.151337438897</v>
+        <v>13.64349364147233</v>
       </c>
       <c r="R9">
-        <v>208.362036950073</v>
+        <v>122.791442773251</v>
       </c>
       <c r="S9">
-        <v>0.07457201288108263</v>
+        <v>0.2626279331502772</v>
       </c>
       <c r="T9">
-        <v>0.0745720128810826</v>
+        <v>0.2626279331502772</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,22 +1027,22 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G10">
-        <v>0.05133433333333334</v>
+        <v>0.1530633333333333</v>
       </c>
       <c r="H10">
-        <v>0.154003</v>
+        <v>0.45919</v>
       </c>
       <c r="I10">
-        <v>0.006394054409187597</v>
+        <v>0.03505335944376924</v>
       </c>
       <c r="J10">
-        <v>0.006394054409187596</v>
+        <v>0.03505335944376924</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>19.43258433333333</v>
+        <v>0.1994653333333334</v>
       </c>
       <c r="N10">
-        <v>58.29775300000001</v>
+        <v>0.598396</v>
       </c>
       <c r="O10">
-        <v>0.5025299392457538</v>
+        <v>0.01676579960230272</v>
       </c>
       <c r="P10">
-        <v>0.5025299392457538</v>
+        <v>0.01676579960230271</v>
       </c>
       <c r="Q10">
-        <v>0.9975587616954446</v>
+        <v>0.03053082880444445</v>
       </c>
       <c r="R10">
-        <v>8.978028855259002</v>
+        <v>0.27477745924</v>
       </c>
       <c r="S10">
-        <v>0.003213203773783087</v>
+        <v>0.0005876975998217204</v>
       </c>
       <c r="T10">
-        <v>0.003213203773783087</v>
+        <v>0.0005876975998217203</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,22 +1089,22 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F11">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G11">
-        <v>0.05133433333333334</v>
+        <v>0.1530633333333333</v>
       </c>
       <c r="H11">
-        <v>0.154003</v>
+        <v>0.45919</v>
       </c>
       <c r="I11">
-        <v>0.006394054409187597</v>
+        <v>0.03505335944376924</v>
       </c>
       <c r="J11">
-        <v>0.006394054409187596</v>
+        <v>0.03505335944376924</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,22 +1119,22 @@
         <v>1.143476</v>
       </c>
       <c r="O11">
-        <v>0.009856828012032944</v>
+        <v>0.03203779682023726</v>
       </c>
       <c r="P11">
-        <v>0.009856828012032942</v>
+        <v>0.03203779682023726</v>
       </c>
       <c r="Q11">
-        <v>0.01956652604755555</v>
+        <v>0.05834141604888889</v>
       </c>
       <c r="R11">
-        <v>0.176098734428</v>
+        <v>0.52507274444</v>
       </c>
       <c r="S11">
-        <v>6.302509461094306E-05</v>
+        <v>0.001123032407726224</v>
       </c>
       <c r="T11">
-        <v>6.302509461094304E-05</v>
+        <v>0.001123032407726224</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,22 +1151,22 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F12">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G12">
-        <v>0.05133433333333334</v>
+        <v>0.1530633333333333</v>
       </c>
       <c r="H12">
-        <v>0.154003</v>
+        <v>0.45919</v>
       </c>
       <c r="I12">
-        <v>0.006394054409187597</v>
+        <v>0.03505335944376924</v>
       </c>
       <c r="J12">
-        <v>0.006394054409187596</v>
+        <v>0.03505335944376924</v>
       </c>
       <c r="K12">
         <v>2</v>
@@ -1175,28 +1175,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M12">
-        <v>0.1430596666666667</v>
+        <v>0.2888043333333333</v>
       </c>
       <c r="N12">
-        <v>0.429179</v>
+        <v>0.8664129999999999</v>
       </c>
       <c r="O12">
-        <v>0.003699547335821904</v>
+        <v>0.02427507324719734</v>
       </c>
       <c r="P12">
-        <v>0.003699547335821903</v>
+        <v>0.02427507324719734</v>
       </c>
       <c r="Q12">
-        <v>0.007343872615222223</v>
+        <v>0.0442053539411111</v>
       </c>
       <c r="R12">
-        <v>0.06609485353700001</v>
+        <v>0.3978481854699999</v>
       </c>
       <c r="S12">
-        <v>2.365510695461027E-05</v>
+        <v>0.0008509228680578349</v>
       </c>
       <c r="T12">
-        <v>2.365510695461026E-05</v>
+        <v>0.0008509228680578346</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,22 +1213,22 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F13">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G13">
-        <v>0.05133433333333334</v>
+        <v>0.1530633333333333</v>
       </c>
       <c r="H13">
-        <v>0.154003</v>
+        <v>0.45919</v>
       </c>
       <c r="I13">
-        <v>0.006394054409187597</v>
+        <v>0.03505335944376924</v>
       </c>
       <c r="J13">
-        <v>0.006394054409187596</v>
+        <v>0.03505335944376924</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>18.712703</v>
+        <v>11.02772766666667</v>
       </c>
       <c r="N13">
-        <v>56.138109</v>
+        <v>33.083183</v>
       </c>
       <c r="O13">
-        <v>0.4839136854063913</v>
+        <v>0.9269213303302627</v>
       </c>
       <c r="P13">
-        <v>0.4839136854063913</v>
+        <v>0.9269213303302626</v>
       </c>
       <c r="Q13">
-        <v>0.9606041333696668</v>
+        <v>1.687940755752222</v>
       </c>
       <c r="R13">
-        <v>8.645437200327001</v>
+        <v>15.19146680177</v>
       </c>
       <c r="S13">
-        <v>0.003094170433838956</v>
+        <v>0.03249170656816346</v>
       </c>
       <c r="T13">
-        <v>0.003094170433838955</v>
+        <v>0.03249170656816346</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.6232476666666668</v>
+        <v>1.146373333333333</v>
       </c>
       <c r="H14">
-        <v>1.869743</v>
+        <v>3.43912</v>
       </c>
       <c r="I14">
-        <v>0.07762990638622394</v>
+        <v>0.2625333947391181</v>
       </c>
       <c r="J14">
-        <v>0.07762990638622393</v>
+        <v>0.2625333947391181</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>19.43258433333333</v>
+        <v>0.1994653333333334</v>
       </c>
       <c r="N14">
-        <v>58.29775300000001</v>
+        <v>0.598396</v>
       </c>
       <c r="O14">
-        <v>0.5025299392457538</v>
+        <v>0.01676579960230272</v>
       </c>
       <c r="P14">
-        <v>0.5025299392457538</v>
+        <v>0.01676579960230271</v>
       </c>
       <c r="Q14">
-        <v>12.11131284305323</v>
+        <v>0.2286617390577778</v>
       </c>
       <c r="R14">
-        <v>109.001815587479</v>
+        <v>2.05795565152</v>
       </c>
       <c r="S14">
-        <v>0.03901135213992268</v>
+        <v>0.004401582285108289</v>
       </c>
       <c r="T14">
-        <v>0.03901135213992267</v>
+        <v>0.004401582285108288</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.6232476666666668</v>
+        <v>1.146373333333333</v>
       </c>
       <c r="H15">
-        <v>1.869743</v>
+        <v>3.43912</v>
       </c>
       <c r="I15">
-        <v>0.07762990638622394</v>
+        <v>0.2625333947391181</v>
       </c>
       <c r="J15">
-        <v>0.07762990638622393</v>
+        <v>0.2625333947391181</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1367,22 +1367,22 @@
         <v>1.143476</v>
       </c>
       <c r="O15">
-        <v>0.009856828012032944</v>
+        <v>0.03203779682023726</v>
       </c>
       <c r="P15">
-        <v>0.009856828012032942</v>
+        <v>0.03203779682023726</v>
       </c>
       <c r="Q15">
-        <v>0.2375562496297778</v>
+        <v>0.4369501312355555</v>
       </c>
       <c r="R15">
-        <v>2.138006246668</v>
+        <v>3.93255118112</v>
       </c>
       <c r="S15">
-        <v>0.0007651846358392272</v>
+        <v>0.008410991559179012</v>
       </c>
       <c r="T15">
-        <v>0.000765184635839227</v>
+        <v>0.008410991559179012</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.6232476666666668</v>
+        <v>1.146373333333333</v>
       </c>
       <c r="H16">
-        <v>1.869743</v>
+        <v>3.43912</v>
       </c>
       <c r="I16">
-        <v>0.07762990638622394</v>
+        <v>0.2625333947391181</v>
       </c>
       <c r="J16">
-        <v>0.07762990638622393</v>
+        <v>0.2625333947391181</v>
       </c>
       <c r="K16">
         <v>2</v>
@@ -1423,28 +1423,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M16">
-        <v>0.1430596666666667</v>
+        <v>0.2888043333333333</v>
       </c>
       <c r="N16">
-        <v>0.429179</v>
+        <v>0.8664129999999999</v>
       </c>
       <c r="O16">
-        <v>0.003699547335821904</v>
+        <v>0.02427507324719734</v>
       </c>
       <c r="P16">
-        <v>0.003699547335821903</v>
+        <v>0.02427507324719734</v>
       </c>
       <c r="Q16">
-        <v>0.08916160344411113</v>
+        <v>0.3310775862844443</v>
       </c>
       <c r="R16">
-        <v>0.8024544309970001</v>
+        <v>2.97969827656</v>
       </c>
       <c r="S16">
-        <v>0.0002871955133512585</v>
+        <v>0.006373017387127465</v>
       </c>
       <c r="T16">
-        <v>0.0002871955133512585</v>
+        <v>0.006373017387127465</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.6232476666666668</v>
+        <v>1.146373333333333</v>
       </c>
       <c r="H17">
-        <v>1.869743</v>
+        <v>3.43912</v>
       </c>
       <c r="I17">
-        <v>0.07762990638622394</v>
+        <v>0.2625333947391181</v>
       </c>
       <c r="J17">
-        <v>0.07762990638622393</v>
+        <v>0.2625333947391181</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>18.712703</v>
+        <v>11.02772766666667</v>
       </c>
       <c r="N17">
-        <v>56.138109</v>
+        <v>33.083183</v>
       </c>
       <c r="O17">
-        <v>0.4839136854063913</v>
+        <v>0.9269213303302627</v>
       </c>
       <c r="P17">
-        <v>0.4839136854063913</v>
+        <v>0.9269213303302626</v>
       </c>
       <c r="Q17">
-        <v>11.66264848177634</v>
+        <v>12.64189292432889</v>
       </c>
       <c r="R17">
-        <v>104.963836335987</v>
+        <v>113.77703631896</v>
       </c>
       <c r="S17">
-        <v>0.03756617409711079</v>
+        <v>0.2433478035077034</v>
       </c>
       <c r="T17">
-        <v>0.03756617409711077</v>
+        <v>0.2433478035077033</v>
       </c>
     </row>
   </sheetData>
